--- a/Code/Results/Cases/Case_7_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_55/res_line/pl_mw.xlsx
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.076978312594633</v>
+        <v>4.076978312594576</v>
       </c>
       <c r="C2">
-        <v>0.7700349914483411</v>
+        <v>0.7700349914478863</v>
       </c>
       <c r="D2">
-        <v>0.07115402107608659</v>
+        <v>0.07115402107620739</v>
       </c>
       <c r="E2">
         <v>0.03180239946287777</v>
@@ -436,7 +436,7 @@
         <v>2.61265009277426</v>
       </c>
       <c r="G2">
-        <v>0.0008034370034651905</v>
+        <v>0.0008034370034060156</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1491907494676568</v>
+        <v>0.1491907494677207</v>
       </c>
       <c r="M2">
-        <v>0.625140076895228</v>
+        <v>0.6251400768952138</v>
       </c>
       <c r="N2">
         <v>1.428260316246664</v>
@@ -471,19 +471,19 @@
         <v>3.544854329360703</v>
       </c>
       <c r="C3">
-        <v>0.662804263325171</v>
+        <v>0.6628042633256541</v>
       </c>
       <c r="D3">
-        <v>0.07204685823677792</v>
+        <v>0.07204685823679924</v>
       </c>
       <c r="E3">
-        <v>0.03025866439592573</v>
+        <v>0.03025866439591596</v>
       </c>
       <c r="F3">
-        <v>2.366516608001646</v>
+        <v>2.36651660800166</v>
       </c>
       <c r="G3">
-        <v>0.0008132395277532935</v>
+        <v>0.0008132395278117255</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1350097881988788</v>
+        <v>0.135009788198893</v>
       </c>
       <c r="M3">
-        <v>0.5465565771529128</v>
+        <v>0.5465565771528915</v>
       </c>
       <c r="N3">
-        <v>1.45453515333655</v>
+        <v>1.454535153336565</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.225022152181396</v>
+        <v>3.225022152181509</v>
       </c>
       <c r="C4">
         <v>0.5980410278210684</v>
       </c>
       <c r="D4">
-        <v>0.07272978340922265</v>
+        <v>0.07272978340934344</v>
       </c>
       <c r="E4">
-        <v>0.02932292107156531</v>
+        <v>0.02932292107155998</v>
       </c>
       <c r="F4">
-        <v>2.22123952939917</v>
+        <v>2.221239529399185</v>
       </c>
       <c r="G4">
-        <v>0.0008194078966214166</v>
+        <v>0.0008194078967336192</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1265637865491414</v>
+        <v>0.1265637865490774</v>
       </c>
       <c r="M4">
-        <v>0.4993846699685278</v>
+        <v>0.4993846699685349</v>
       </c>
       <c r="N4">
-        <v>1.472838546790285</v>
+        <v>1.472838546790214</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>3.096198543938158</v>
       </c>
       <c r="C5">
-        <v>0.5718749828777163</v>
+        <v>0.5718749828777447</v>
       </c>
       <c r="D5">
-        <v>0.07303955053063049</v>
+        <v>0.07303955053073707</v>
       </c>
       <c r="E5">
-        <v>0.0289438392031478</v>
+        <v>0.02894383920310251</v>
       </c>
       <c r="F5">
-        <v>2.163355089392383</v>
+        <v>2.163355089392397</v>
       </c>
       <c r="G5">
-        <v>0.0008219613841776826</v>
+        <v>0.0008219613841753511</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1231812332207056</v>
+        <v>0.1231812332206275</v>
       </c>
       <c r="M5">
-        <v>0.4803997413853693</v>
+        <v>0.4803997413853622</v>
       </c>
       <c r="N5">
-        <v>1.480809209708582</v>
+        <v>1.480809209708539</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.074892586234228</v>
+        <v>3.074892586234284</v>
       </c>
       <c r="C6">
-        <v>0.5675425076617842</v>
+        <v>0.5675425076618126</v>
       </c>
       <c r="D6">
-        <v>0.07309282211929968</v>
+        <v>0.07309282211920376</v>
       </c>
       <c r="E6">
-        <v>0.02888100639450109</v>
+        <v>0.02888100639451618</v>
       </c>
       <c r="F6">
-        <v>2.153818743001224</v>
+        <v>2.153818743001267</v>
       </c>
       <c r="G6">
-        <v>0.0008223878553442433</v>
+        <v>0.000822387855291014</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1226229653626802</v>
+        <v>0.1226229653627371</v>
       </c>
       <c r="M6">
-        <v>0.4772607690717479</v>
+        <v>0.4772607690717408</v>
       </c>
       <c r="N6">
-        <v>1.482162716819502</v>
+        <v>1.482162716819531</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.22327895542378</v>
+        <v>3.223278955423837</v>
       </c>
       <c r="C7">
-        <v>0.5976872870918442</v>
+        <v>0.5976872870923842</v>
       </c>
       <c r="D7">
         <v>0.07273383661808808</v>
       </c>
       <c r="E7">
-        <v>0.02931780056834565</v>
+        <v>0.02931780056832078</v>
       </c>
       <c r="F7">
-        <v>2.220453739602505</v>
+        <v>2.22045373960249</v>
       </c>
       <c r="G7">
-        <v>0.0008194421698619567</v>
+        <v>0.0008194421699758477</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1265179363658149</v>
+        <v>0.1265179363658646</v>
       </c>
       <c r="M7">
-        <v>0.4991277106275049</v>
+        <v>0.499127710627512</v>
       </c>
       <c r="N7">
-        <v>1.472944011861017</v>
+        <v>1.472944011861003</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.891930091107156</v>
+        <v>3.891930091107042</v>
       </c>
       <c r="C8">
-        <v>0.7328096508496458</v>
+        <v>0.7328096508501005</v>
       </c>
       <c r="D8">
-        <v>0.07143238071409996</v>
+        <v>0.07143238071422076</v>
       </c>
       <c r="E8">
-        <v>0.03126709112984383</v>
+        <v>0.03126709112984649</v>
       </c>
       <c r="F8">
-        <v>2.526471872442301</v>
+        <v>2.526471872442357</v>
       </c>
       <c r="G8">
-        <v>0.000806787264696962</v>
+        <v>0.0008067872645824552</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1442429011157031</v>
+        <v>0.1442429011156534</v>
       </c>
       <c r="M8">
-        <v>0.5977995954280644</v>
+        <v>0.5977995954280715</v>
       </c>
       <c r="N8">
-        <v>1.436847941370559</v>
+        <v>1.436847941370615</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.269174602471935</v>
+        <v>5.269174602471821</v>
       </c>
       <c r="C9">
-        <v>1.008636613793328</v>
+        <v>1.008636613793072</v>
       </c>
       <c r="D9">
-        <v>0.07007261070135939</v>
+        <v>0.07007261070146598</v>
       </c>
       <c r="E9">
-        <v>0.03522754401410655</v>
+        <v>0.03522754401410477</v>
       </c>
       <c r="F9">
-        <v>3.180786993720204</v>
+        <v>3.180786993720147</v>
       </c>
       <c r="G9">
-        <v>0.0007830462632989723</v>
+        <v>0.0007830462632318253</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.18139791281736</v>
+        <v>0.1813979128173528</v>
       </c>
       <c r="M9">
-        <v>0.8015397258698584</v>
+        <v>0.8015397258698655</v>
       </c>
       <c r="N9">
-        <v>1.385001970838601</v>
+        <v>1.385001970838587</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -803,16 +803,16 @@
         <v>1.221597464858348</v>
       </c>
       <c r="D10">
-        <v>0.0700000496468931</v>
+        <v>0.07000004964732653</v>
       </c>
       <c r="E10">
-        <v>0.03828964825421721</v>
+        <v>0.03828964825417991</v>
       </c>
       <c r="F10">
-        <v>3.706974698408942</v>
+        <v>3.706974698408885</v>
       </c>
       <c r="G10">
-        <v>0.0007660826296928849</v>
+        <v>0.0007660826297472053</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.210670411071419</v>
+        <v>0.210670411071348</v>
       </c>
       <c r="M10">
         <v>0.9601563734310616</v>
       </c>
       <c r="N10">
-        <v>1.361186565743878</v>
+        <v>1.361186565743836</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,13 +844,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.84358273122831</v>
+        <v>6.843582731228139</v>
       </c>
       <c r="C11">
-        <v>1.321703231581978</v>
+        <v>1.321703231582262</v>
       </c>
       <c r="D11">
-        <v>0.07022244917735776</v>
+        <v>0.07022244917734355</v>
       </c>
       <c r="E11">
         <v>0.03973453558193718</v>
@@ -859,7 +859,7 @@
         <v>3.959512251215699</v>
       </c>
       <c r="G11">
-        <v>0.0007584230175925782</v>
+        <v>0.0007584230175353301</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2245510729913889</v>
+        <v>0.2245510729915452</v>
       </c>
       <c r="M11">
-        <v>1.03496340849351</v>
+        <v>1.034963408493518</v>
       </c>
       <c r="N11">
-        <v>1.354179466633241</v>
+        <v>1.354179466633184</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.037515437768377</v>
+        <v>7.037515437768548</v>
       </c>
       <c r="C12">
-        <v>1.36017288306499</v>
+        <v>1.360172883064763</v>
       </c>
       <c r="D12">
-        <v>0.07034889482338968</v>
+        <v>0.07034889482362416</v>
       </c>
       <c r="E12">
-        <v>0.04029105957745038</v>
+        <v>0.04029105957745394</v>
       </c>
       <c r="F12">
-        <v>4.05736120934958</v>
+        <v>4.057361209349608</v>
       </c>
       <c r="G12">
-        <v>0.000755526200318543</v>
+        <v>0.0007555262003200551</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2299017249761022</v>
+        <v>0.2299017249762159</v>
       </c>
       <c r="M12">
-        <v>1.063742077066699</v>
+        <v>1.063742077066713</v>
       </c>
       <c r="N12">
-        <v>1.352148911883162</v>
+        <v>1.35214891188312</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.995607836681017</v>
+        <v>6.995607836681074</v>
       </c>
       <c r="C13">
-        <v>1.351861047757552</v>
+        <v>1.351861047757609</v>
       </c>
       <c r="D13">
-        <v>0.07031968644853492</v>
+        <v>0.07031968644855624</v>
       </c>
       <c r="E13">
-        <v>0.04017075093215006</v>
+        <v>0.04017075093212163</v>
       </c>
       <c r="F13">
-        <v>4.036183303777364</v>
+        <v>4.036183303777335</v>
       </c>
       <c r="G13">
-        <v>0.0007561499961200635</v>
+        <v>0.0007561499961802376</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2287449389847325</v>
+        <v>0.2287449389847893</v>
       </c>
       <c r="M13">
-        <v>1.05752279881743</v>
+        <v>1.057522798817438</v>
       </c>
       <c r="N13">
-        <v>1.352557243804569</v>
+        <v>1.352557243804611</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.859475052518974</v>
+        <v>6.859475052519088</v>
       </c>
       <c r="C14">
-        <v>1.324856279521384</v>
+        <v>1.324856279520588</v>
       </c>
       <c r="D14">
-        <v>0.07023197069578657</v>
+        <v>0.07023197069599263</v>
       </c>
       <c r="E14">
-        <v>0.03978012102748174</v>
+        <v>0.03978012102747108</v>
       </c>
       <c r="F14">
-        <v>3.967515842702056</v>
+        <v>3.967515842702113</v>
       </c>
       <c r="G14">
-        <v>0.0007581846486656323</v>
+        <v>0.000758184648588109</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.224989300932819</v>
+        <v>0.2249893009328758</v>
       </c>
       <c r="M14">
-        <v>1.037321573676032</v>
+        <v>1.037321573676046</v>
       </c>
       <c r="N14">
-        <v>1.353999470817996</v>
+        <v>1.353999470818067</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.776492828051119</v>
+        <v>6.776492828050948</v>
       </c>
       <c r="C15">
-        <v>1.308391399217669</v>
+        <v>1.308391399217271</v>
       </c>
       <c r="D15">
-        <v>0.07018392109323912</v>
+        <v>0.07018392109324623</v>
       </c>
       <c r="E15">
-        <v>0.03954213269517659</v>
+        <v>0.03954213269518014</v>
       </c>
       <c r="F15">
-        <v>3.925754440994098</v>
+        <v>3.925754440994126</v>
       </c>
       <c r="G15">
-        <v>0.0007594312694804231</v>
+        <v>0.0007594312695388623</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2227015757029847</v>
+        <v>0.2227015757029989</v>
       </c>
       <c r="M15">
-        <v>1.025008704752686</v>
+        <v>1.025008704752672</v>
       </c>
       <c r="N15">
-        <v>1.354966346169064</v>
+        <v>1.354966346169007</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.306752235473027</v>
+        <v>6.306752235473255</v>
       </c>
       <c r="C16">
-        <v>1.215128273961113</v>
+        <v>1.215128273960602</v>
       </c>
       <c r="D16">
-        <v>0.06999110388111518</v>
+        <v>0.06999110388120044</v>
       </c>
       <c r="E16">
-        <v>0.03819642183484717</v>
+        <v>0.0381964218348454</v>
       </c>
       <c r="F16">
         <v>3.690762434617625</v>
       </c>
       <c r="G16">
-        <v>0.0007665839840411692</v>
+        <v>0.0007665839841682423</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2097757182516347</v>
+        <v>0.2097757182515778</v>
       </c>
       <c r="M16">
-        <v>0.9553266233190811</v>
+        <v>0.9553266233191025</v>
       </c>
       <c r="N16">
         <v>1.361727449852836</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.023363155410777</v>
+        <v>6.023363155410891</v>
       </c>
       <c r="C17">
-        <v>1.158805987344863</v>
+        <v>1.15880598734509</v>
       </c>
       <c r="D17">
-        <v>0.06994186124497048</v>
+        <v>0.0699418612448639</v>
       </c>
       <c r="E17">
-        <v>0.03738542491478292</v>
+        <v>0.03738542491471364</v>
       </c>
       <c r="F17">
-        <v>3.550191707433498</v>
+        <v>3.55019170743347</v>
       </c>
       <c r="G17">
-        <v>0.0007709835933031354</v>
+        <v>0.0007709835932916107</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.201999477557095</v>
+        <v>0.2019994775570524</v>
       </c>
       <c r="M17">
-        <v>0.9133043264260436</v>
+        <v>0.9133043264260365</v>
       </c>
       <c r="N17">
-        <v>1.366903469480846</v>
+        <v>1.36690346948086</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1179,16 +1179,16 @@
         <v>1.126708145127111</v>
       </c>
       <c r="D18">
-        <v>0.06993719913590013</v>
+        <v>0.06993719913567276</v>
       </c>
       <c r="E18">
-        <v>0.03692371540231676</v>
+        <v>0.03692371540230255</v>
       </c>
       <c r="F18">
         <v>3.470556869865675</v>
       </c>
       <c r="G18">
-        <v>0.0007735198258424883</v>
+        <v>0.0007735198258473733</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0.1975790249979639</v>
       </c>
       <c r="M18">
-        <v>0.8893790524297316</v>
+        <v>0.8893790524296818</v>
       </c>
       <c r="N18">
         <v>1.370235804753023</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.807596544762077</v>
+        <v>5.807596544762362</v>
       </c>
       <c r="C19">
-        <v>1.115888694742296</v>
+        <v>1.115888694742864</v>
       </c>
       <c r="D19">
-        <v>0.06993953166604427</v>
+        <v>0.06993953166606559</v>
       </c>
       <c r="E19">
-        <v>0.03676815229825259</v>
+        <v>0.03676815229825792</v>
       </c>
       <c r="F19">
         <v>3.443793936688593</v>
       </c>
       <c r="G19">
-        <v>0.0007743796554051058</v>
+        <v>0.0007743796553366399</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1960909364979102</v>
+        <v>0.1960909364979386</v>
       </c>
       <c r="M19">
-        <v>0.8813184648060925</v>
+        <v>0.8813184648060783</v>
       </c>
       <c r="N19">
         <v>1.371423054121934</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.053360532724071</v>
+        <v>6.053360532723843</v>
       </c>
       <c r="C20">
-        <v>1.164770169541839</v>
+        <v>1.164770169541612</v>
       </c>
       <c r="D20">
-        <v>0.0699446174974625</v>
+        <v>0.06994461749744829</v>
       </c>
       <c r="E20">
-        <v>0.03747125209457458</v>
+        <v>0.0374712520945728</v>
       </c>
       <c r="F20">
         <v>3.565027478998871</v>
       </c>
       <c r="G20">
-        <v>0.0007705146887735683</v>
+        <v>0.0007705146887030463</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2028217761498325</v>
+        <v>0.2028217761498894</v>
       </c>
       <c r="M20">
         <v>0.9177518609701849</v>
@@ -1317,19 +1317,19 @@
         <v>6.899375616219231</v>
       </c>
       <c r="C21">
-        <v>1.332772132792854</v>
+        <v>1.332772132792797</v>
       </c>
       <c r="D21">
-        <v>0.07025654027329864</v>
+        <v>0.07025654027360417</v>
       </c>
       <c r="E21">
-        <v>0.03989458704626259</v>
+        <v>0.03989458704626436</v>
       </c>
       <c r="F21">
         <v>3.987622093323751</v>
       </c>
       <c r="G21">
-        <v>0.0007575869606336097</v>
+        <v>0.0007575869606344979</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.226089747419195</v>
+        <v>0.2260897474191381</v>
       </c>
       <c r="M21">
-        <v>1.043242318426749</v>
+        <v>1.043242318426721</v>
       </c>
       <c r="N21">
         <v>1.35355831244928</v>
@@ -1364,19 +1364,19 @@
         <v>7.469929257573597</v>
       </c>
       <c r="C22">
-        <v>1.445902839982068</v>
+        <v>1.445902839982011</v>
       </c>
       <c r="D22">
-        <v>0.07070982238253265</v>
+        <v>0.07070982238236923</v>
       </c>
       <c r="E22">
-        <v>0.04153418652191654</v>
+        <v>0.04153418652194141</v>
       </c>
       <c r="F22">
-        <v>4.27693238030821</v>
+        <v>4.276932380308239</v>
       </c>
       <c r="G22">
-        <v>0.000749156951115115</v>
+        <v>0.0007491569510734059</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2418542599185827</v>
+        <v>0.2418542599186111</v>
       </c>
       <c r="M22">
-        <v>1.127926105108273</v>
+        <v>1.12792610510828</v>
       </c>
       <c r="N22">
-        <v>1.348894112349285</v>
+        <v>1.348894112349342</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.163625715609328</v>
+        <v>7.163625715609442</v>
       </c>
       <c r="C23">
-        <v>1.385181499437351</v>
+        <v>1.385181499437977</v>
       </c>
       <c r="D23">
-        <v>0.07044299618419814</v>
+        <v>0.07044299618408445</v>
       </c>
       <c r="E23">
-        <v>0.04065326758193955</v>
+        <v>0.0406532675819502</v>
       </c>
       <c r="F23">
         <v>4.121200518518634</v>
       </c>
       <c r="G23">
-        <v>0.0007536561482047301</v>
+        <v>0.0007536561481907148</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2333845346228287</v>
+        <v>0.2333845346228145</v>
       </c>
       <c r="M23">
-        <v>1.082458681069816</v>
+        <v>1.082458681069845</v>
       </c>
       <c r="N23">
         <v>1.351020241459594</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.03979396554621</v>
+        <v>6.039793965546153</v>
       </c>
       <c r="C24">
         <v>1.162072889709918</v>
       </c>
       <c r="D24">
-        <v>0.06994329814050815</v>
+        <v>0.06994329814038736</v>
       </c>
       <c r="E24">
-        <v>0.03743243561395992</v>
+        <v>0.03743243561399368</v>
       </c>
       <c r="F24">
-        <v>3.558316571504179</v>
+        <v>3.55831657150415</v>
       </c>
       <c r="G24">
-        <v>0.0007707266589320668</v>
+        <v>0.0007707266588067548</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2024498595263822</v>
+        <v>0.2024498595263537</v>
       </c>
       <c r="M24">
         <v>0.915740407156207</v>
       </c>
       <c r="N24">
-        <v>1.366580061538116</v>
+        <v>1.366580061538073</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.887804581544344</v>
+        <v>4.887804581544287</v>
       </c>
       <c r="C25">
-        <v>0.9325047320940882</v>
+        <v>0.9325047320940314</v>
       </c>
       <c r="D25">
-        <v>0.070293978986669</v>
+        <v>0.07029397898642031</v>
       </c>
       <c r="E25">
         <v>0.03413495551675361</v>
       </c>
       <c r="F25">
-        <v>2.99678953893752</v>
+        <v>2.996789538937492</v>
       </c>
       <c r="G25">
-        <v>0.0007893706338477379</v>
+        <v>0.0007893706337893668</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1710407776067271</v>
+        <v>0.171040777606855</v>
       </c>
       <c r="M25">
-        <v>0.7450696476406051</v>
+        <v>0.745069647640598</v>
       </c>
       <c r="N25">
-        <v>1.396740402157519</v>
+        <v>1.396740402157434</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.076978312594576</v>
+        <v>2.463327755881949</v>
       </c>
       <c r="C2">
-        <v>0.7700349914478863</v>
+        <v>0.5558790353396148</v>
       </c>
       <c r="D2">
-        <v>0.07115402107620739</v>
+        <v>0.0297198900638449</v>
       </c>
       <c r="E2">
-        <v>0.03180239946287777</v>
+        <v>0.05998856437027067</v>
       </c>
       <c r="F2">
-        <v>2.61265009277426</v>
+        <v>0.9084878580736131</v>
       </c>
       <c r="G2">
-        <v>0.0008034370034060156</v>
+        <v>0.8387192295420789</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.281834517978368E-06</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5402297740481004</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4862805048676861</v>
       </c>
       <c r="L2">
-        <v>0.1491907494677207</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6251400768952138</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.428260316246664</v>
+        <v>0.2019712202354356</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4265319920206494</v>
+      </c>
+      <c r="P2">
+        <v>0.7615130051591095</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.544854329360703</v>
+        <v>2.141954431639306</v>
       </c>
       <c r="C3">
-        <v>0.6628042633256541</v>
+        <v>0.4898149414658235</v>
       </c>
       <c r="D3">
-        <v>0.07204685823679924</v>
+        <v>0.02839187486780403</v>
       </c>
       <c r="E3">
-        <v>0.03025866439591596</v>
+        <v>0.0564368203201755</v>
       </c>
       <c r="F3">
-        <v>2.36651660800166</v>
+        <v>0.8299604851048201</v>
       </c>
       <c r="G3">
-        <v>0.0008132395278117255</v>
+        <v>0.7653060310424991</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0003544840465112831</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5115461152651193</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4681928769346939</v>
       </c>
       <c r="L3">
-        <v>0.135009788198893</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5465565771528915</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.454535153336565</v>
+        <v>0.1808643862731856</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3725016450884908</v>
+      </c>
+      <c r="P3">
+        <v>0.795892503167611</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.225022152181509</v>
+        <v>1.945125543492168</v>
       </c>
       <c r="C4">
-        <v>0.5980410278210684</v>
+        <v>0.4493160820289575</v>
       </c>
       <c r="D4">
-        <v>0.07272978340934344</v>
+        <v>0.02756236932893685</v>
       </c>
       <c r="E4">
-        <v>0.02932292107155998</v>
+        <v>0.0542524032681817</v>
       </c>
       <c r="F4">
-        <v>2.221239529399185</v>
+        <v>0.7830484090615215</v>
       </c>
       <c r="G4">
-        <v>0.0008194078967336192</v>
+        <v>0.7215065920985779</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0008584385590957311</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4946863635372978</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4578282733261929</v>
       </c>
       <c r="L4">
-        <v>0.1265637865490774</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4993846699685349</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.472838546790214</v>
+        <v>0.1679154410428083</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3393954229321565</v>
+      </c>
+      <c r="P4">
+        <v>0.8177973706686892</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.096198543938158</v>
+        <v>1.865011757579282</v>
       </c>
       <c r="C5">
-        <v>0.5718749828777447</v>
+        <v>0.4328197311188546</v>
       </c>
       <c r="D5">
-        <v>0.07303955053073707</v>
+        <v>0.02722083097817318</v>
       </c>
       <c r="E5">
-        <v>0.02894383920310251</v>
+        <v>0.05335976886762284</v>
       </c>
       <c r="F5">
-        <v>2.163355089392397</v>
+        <v>0.7642353931425276</v>
       </c>
       <c r="G5">
-        <v>0.0008219613841753511</v>
+        <v>0.7039547598539428</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001132263370476561</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4879938742754319</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4537805365068195</v>
       </c>
       <c r="L5">
-        <v>0.1231812332206275</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4803997413853622</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.480809209708539</v>
+        <v>0.162638543983519</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3259171559571215</v>
+      </c>
+      <c r="P5">
+        <v>0.8269185491001458</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.074892586234284</v>
+        <v>1.851713881611914</v>
       </c>
       <c r="C6">
-        <v>0.5675425076618126</v>
+        <v>0.4300807100414943</v>
       </c>
       <c r="D6">
-        <v>0.07309282211920376</v>
+        <v>0.02716390802256541</v>
       </c>
       <c r="E6">
-        <v>0.02888100639451618</v>
+        <v>0.05321135488082096</v>
       </c>
       <c r="F6">
-        <v>2.153818743001267</v>
+        <v>0.7611291944053562</v>
       </c>
       <c r="G6">
-        <v>0.000822387855291014</v>
+        <v>0.7010575331313476</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001181743041144601</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4868930275528669</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.453118741819722</v>
       </c>
       <c r="L6">
-        <v>0.1226229653627371</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4772607690717408</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.482162716819531</v>
+        <v>0.1617622343377434</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3236797465774046</v>
+      </c>
+      <c r="P6">
+        <v>0.8284447271329096</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.223278955423837</v>
+        <v>1.944044751077939</v>
       </c>
       <c r="C7">
-        <v>0.5976872870923842</v>
+        <v>0.4490935885893919</v>
       </c>
       <c r="D7">
-        <v>0.07273383661808808</v>
+        <v>0.02755777737790766</v>
       </c>
       <c r="E7">
-        <v>0.02931780056832078</v>
+        <v>0.05424037686539873</v>
       </c>
       <c r="F7">
-        <v>2.22045373960249</v>
+        <v>0.7827934897834581</v>
       </c>
       <c r="G7">
-        <v>0.0008194421699758477</v>
+        <v>0.7212687113235461</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00086185987364229</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4945953998773547</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4577729852893455</v>
       </c>
       <c r="L7">
-        <v>0.1265179363658646</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.499127710627512</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.472944011861003</v>
+        <v>0.1678442789498504</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3392136042570044</v>
+      </c>
+      <c r="P7">
+        <v>0.817919600284343</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.891930091107042</v>
+        <v>2.352397246730561</v>
       </c>
       <c r="C8">
-        <v>0.7328096508501005</v>
+        <v>0.5330810729637392</v>
       </c>
       <c r="D8">
-        <v>0.07143238071422076</v>
+        <v>0.02926493832995902</v>
       </c>
       <c r="E8">
-        <v>0.03126709112984649</v>
+        <v>0.05876371312755335</v>
       </c>
       <c r="F8">
-        <v>2.526471872442357</v>
+        <v>0.8811261849861438</v>
       </c>
       <c r="G8">
-        <v>0.0008067872645824552</v>
+        <v>0.8131264250259562</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.291429470550725E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5301766525918197</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4798835650271371</v>
       </c>
       <c r="L8">
-        <v>0.1442429011156534</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5977995954280715</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.436847941370615</v>
+        <v>0.1946896227977248</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4078852981600676</v>
+      </c>
+      <c r="P8">
+        <v>0.7731986189044608</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.269174602471821</v>
+        <v>3.158545260319045</v>
       </c>
       <c r="C9">
-        <v>1.008636613793072</v>
+        <v>0.6987373080967814</v>
       </c>
       <c r="D9">
-        <v>0.07007261070146598</v>
+        <v>0.03249933753819434</v>
       </c>
       <c r="E9">
-        <v>0.03522754401410477</v>
+        <v>0.06768013392623695</v>
       </c>
       <c r="F9">
-        <v>3.180786993720147</v>
+        <v>1.085452725975117</v>
       </c>
       <c r="G9">
-        <v>0.0007830462632318253</v>
+        <v>1.004552792939833</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0009994418245169445</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.606454813189373</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5296255794319009</v>
       </c>
       <c r="L9">
-        <v>0.1813979128173528</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8015397258698655</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.385001970838587</v>
+        <v>0.2475539823674637</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5433158999056644</v>
+      </c>
+      <c r="P9">
+        <v>0.6920662034133045</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.339317512884577</v>
+        <v>3.739607228160537</v>
       </c>
       <c r="C10">
-        <v>1.221597464858348</v>
+        <v>0.8260694814417207</v>
       </c>
       <c r="D10">
-        <v>0.07000004964732653</v>
+        <v>0.03535846692514255</v>
       </c>
       <c r="E10">
-        <v>0.03828964825417991</v>
+        <v>0.07437792710253355</v>
       </c>
       <c r="F10">
-        <v>3.706974698408885</v>
+        <v>1.23086504981471</v>
       </c>
       <c r="G10">
-        <v>0.0007660826297472053</v>
+        <v>1.138721228332798</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.003543156529402847</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6597444600451468</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5617944204865566</v>
       </c>
       <c r="L10">
-        <v>0.210670411071348</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9601563734310616</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.361186565743836</v>
+        <v>0.2745662020572155</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6335071419667528</v>
+      </c>
+      <c r="P10">
+        <v>0.6381825723134185</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.843582731228139</v>
+        <v>3.859008587048947</v>
       </c>
       <c r="C11">
-        <v>1.321703231582262</v>
+        <v>0.923958744315172</v>
       </c>
       <c r="D11">
-        <v>0.07022244917734355</v>
+        <v>0.04206056007614478</v>
       </c>
       <c r="E11">
-        <v>0.03973453558193718</v>
+        <v>0.08284302706941205</v>
       </c>
       <c r="F11">
-        <v>3.959512251215699</v>
+        <v>1.18318497171164</v>
       </c>
       <c r="G11">
-        <v>0.0007584230175353301</v>
+        <v>1.072306583139436</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02231004387524749</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6204945276391243</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5013494503300251</v>
       </c>
       <c r="L11">
-        <v>0.2245510729915452</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.034963408493518</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.354179466633184</v>
+        <v>0.1932003931887678</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5883252806666377</v>
+      </c>
+      <c r="P11">
+        <v>0.6344805906619086</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.037515437768548</v>
+        <v>3.83421431296415</v>
       </c>
       <c r="C12">
-        <v>1.360172883064763</v>
+        <v>0.9817326297317663</v>
       </c>
       <c r="D12">
-        <v>0.07034889482362416</v>
+        <v>0.04793397763385343</v>
       </c>
       <c r="E12">
-        <v>0.04029105957745394</v>
+        <v>0.09574336496092251</v>
       </c>
       <c r="F12">
-        <v>4.057361209349608</v>
+        <v>1.112024847519152</v>
       </c>
       <c r="G12">
-        <v>0.0007555262003200551</v>
+        <v>0.9888685463866835</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06076744204521134</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5763437879223119</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4457136751524473</v>
       </c>
       <c r="L12">
-        <v>0.2299017249762159</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.063742077066713</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.35214891188312</v>
+        <v>0.1348905966204441</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5329043299725669</v>
+      </c>
+      <c r="P12">
+        <v>0.6527571910898615</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.995607836681074</v>
+        <v>3.697061420108469</v>
       </c>
       <c r="C13">
-        <v>1.351861047757609</v>
+        <v>1.011230735154641</v>
       </c>
       <c r="D13">
-        <v>0.07031968644855624</v>
+        <v>0.0534200495782855</v>
       </c>
       <c r="E13">
-        <v>0.04017075093212163</v>
+        <v>0.1124693635133802</v>
       </c>
       <c r="F13">
-        <v>4.036183303777335</v>
+        <v>1.018511038148588</v>
       </c>
       <c r="G13">
-        <v>0.0007561499961802376</v>
+        <v>0.8874175493096743</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1159508016984461</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5257687643003948</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3904772583026173</v>
       </c>
       <c r="L13">
-        <v>0.2287449389847893</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.057522798817438</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.352557243804611</v>
+        <v>0.09114750412340911</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.4668699690943541</v>
+      </c>
+      <c r="P13">
+        <v>0.6875124044109739</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.859475052519088</v>
+        <v>3.550923155321755</v>
       </c>
       <c r="C14">
-        <v>1.324856279520588</v>
+        <v>1.019057214416165</v>
       </c>
       <c r="D14">
-        <v>0.07023197069599263</v>
+        <v>0.05712994353094558</v>
       </c>
       <c r="E14">
-        <v>0.03978012102747108</v>
+        <v>0.126656645959013</v>
       </c>
       <c r="F14">
-        <v>3.967515842702113</v>
+        <v>0.9436674587420413</v>
       </c>
       <c r="G14">
-        <v>0.000758184648588109</v>
+        <v>0.809187265139613</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1647916488174559</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4878779377698947</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3526660092711822</v>
       </c>
       <c r="L14">
-        <v>0.2249893009328758</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.037321573676046</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.353999470818067</v>
+        <v>0.06950547379326188</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4166077528961196</v>
+      </c>
+      <c r="P14">
+        <v>0.7199612261334707</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.776492828050948</v>
+        <v>3.491979393257054</v>
       </c>
       <c r="C15">
-        <v>1.308391399217271</v>
+        <v>1.014569920354916</v>
       </c>
       <c r="D15">
-        <v>0.07018392109324623</v>
+        <v>0.0578261109181426</v>
       </c>
       <c r="E15">
-        <v>0.03954213269518014</v>
+        <v>0.1299312454692547</v>
       </c>
       <c r="F15">
-        <v>3.925754440994126</v>
+        <v>0.9208248815319138</v>
       </c>
       <c r="G15">
-        <v>0.0007594312695388623</v>
+        <v>0.786307113237811</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1770804853754129</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4773107172442508</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3433172646411577</v>
       </c>
       <c r="L15">
-        <v>0.2227015757029989</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.025008704752672</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.354966346169007</v>
+        <v>0.06529950696941</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4020071570811723</v>
+      </c>
+      <c r="P15">
+        <v>0.7298385789739967</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.306752235473255</v>
+        <v>3.272266501772037</v>
       </c>
       <c r="C16">
-        <v>1.215128273960602</v>
+        <v>0.9519718397126837</v>
       </c>
       <c r="D16">
-        <v>0.06999110388120044</v>
+        <v>0.05523621624883646</v>
       </c>
       <c r="E16">
-        <v>0.0381964218348454</v>
+        <v>0.1229159834707936</v>
       </c>
       <c r="F16">
-        <v>3.690762434617625</v>
+        <v>0.8777653463066173</v>
       </c>
       <c r="G16">
-        <v>0.0007665839841682423</v>
+        <v>0.7499827292503198</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1633112420958582</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4648482204498237</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3409649521710989</v>
       </c>
       <c r="L16">
-        <v>0.2097757182515778</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9553266233191025</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.361727449852836</v>
+        <v>0.06405904865763468</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3786541613361578</v>
+      </c>
+      <c r="P16">
+        <v>0.7418315544873479</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.023363155410891</v>
+        <v>3.181406619095583</v>
       </c>
       <c r="C17">
-        <v>1.15880598734509</v>
+        <v>0.9000600592730734</v>
       </c>
       <c r="D17">
-        <v>0.0699418612448639</v>
+        <v>0.05126313593630982</v>
       </c>
       <c r="E17">
-        <v>0.03738542491471364</v>
+        <v>0.1095290287491757</v>
       </c>
       <c r="F17">
-        <v>3.55019170743347</v>
+        <v>0.8845030390145467</v>
       </c>
       <c r="G17">
-        <v>0.0007709835932916107</v>
+        <v>0.7635284119121479</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1250414389803183</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4754038019139273</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3590516900297303</v>
       </c>
       <c r="L17">
-        <v>0.2019994775570524</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9133043264260365</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.36690346948086</v>
+        <v>0.07291048568325564</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3869149846965243</v>
+      </c>
+      <c r="P17">
+        <v>0.7338540469990278</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.86197597559277</v>
+        <v>3.189867896637338</v>
       </c>
       <c r="C18">
-        <v>1.126708145127111</v>
+        <v>0.8520504978810095</v>
       </c>
       <c r="D18">
-        <v>0.06993719913567276</v>
+        <v>0.04600469942443652</v>
       </c>
       <c r="E18">
-        <v>0.03692371540230255</v>
+        <v>0.09246774100374644</v>
       </c>
       <c r="F18">
-        <v>3.470556869865675</v>
+        <v>0.9349440645555376</v>
       </c>
       <c r="G18">
-        <v>0.0007735198258473733</v>
+        <v>0.8222358899200373</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07212938507033329</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5072048298522276</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3980116808121963</v>
       </c>
       <c r="L18">
-        <v>0.1975790249979639</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8893790524296818</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.370235804753023</v>
+        <v>0.09945314678771666</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4244920852945953</v>
+      </c>
+      <c r="P18">
+        <v>0.7122620605825745</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.807596544762362</v>
+        <v>3.277408230817628</v>
       </c>
       <c r="C19">
-        <v>1.115888694742864</v>
+        <v>0.8115758352408591</v>
       </c>
       <c r="D19">
-        <v>0.06993953166606559</v>
+        <v>0.04057827060319852</v>
       </c>
       <c r="E19">
-        <v>0.03676815229825792</v>
+        <v>0.07854315775535881</v>
       </c>
       <c r="F19">
-        <v>3.443793936688593</v>
+        <v>1.018200640457977</v>
       </c>
       <c r="G19">
-        <v>0.0007743796553366399</v>
+        <v>0.915279808724577</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02721468911973091</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5547384967708666</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4533234124514891</v>
       </c>
       <c r="L19">
-        <v>0.1960909364979386</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8813184648060783</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.371423054121934</v>
+        <v>0.150479705034634</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4851761752812678</v>
+      </c>
+      <c r="P19">
+        <v>0.6876378797128986</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.053360532723843</v>
+        <v>3.5859294162737</v>
       </c>
       <c r="C20">
-        <v>1.164770169541612</v>
+        <v>0.792688297077234</v>
       </c>
       <c r="D20">
-        <v>0.06994461749744829</v>
+        <v>0.03463262053740834</v>
       </c>
       <c r="E20">
-        <v>0.0374712520945728</v>
+        <v>0.07259300258942103</v>
       </c>
       <c r="F20">
-        <v>3.565027478998871</v>
+        <v>1.191473782450302</v>
       </c>
       <c r="G20">
-        <v>0.0007705146887030463</v>
+        <v>1.102219586644409</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.00272243192210686</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6450872474543132</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5526291872337623</v>
       </c>
       <c r="L20">
-        <v>0.2028217761498894</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9177518609701849</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.366315218623569</v>
+        <v>0.2669403443242828</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6093574461939752</v>
+      </c>
+      <c r="P20">
+        <v>0.6520202445464438</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.899375616219231</v>
+        <v>4.059909988579534</v>
       </c>
       <c r="C21">
-        <v>1.332772132792797</v>
+        <v>0.8842578679818871</v>
       </c>
       <c r="D21">
-        <v>0.07025654027360417</v>
+        <v>0.03595024666948277</v>
       </c>
       <c r="E21">
-        <v>0.03989458704626436</v>
+        <v>0.0778149218402544</v>
       </c>
       <c r="F21">
-        <v>3.987622093323751</v>
+        <v>1.327089901473812</v>
       </c>
       <c r="G21">
-        <v>0.0007575869606344979</v>
+        <v>1.231758426499113</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.005321791474186321</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6993469392272402</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5929433329170806</v>
       </c>
       <c r="L21">
-        <v>0.2260897474191381</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.043242318426721</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.35355831244928</v>
+        <v>0.306641260372416</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.6945318568096752</v>
+      </c>
+      <c r="P21">
+        <v>0.6101409336331454</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.469929257573597</v>
+        <v>4.362969328393888</v>
       </c>
       <c r="C22">
-        <v>1.445902839982011</v>
+        <v>0.9467817658036211</v>
       </c>
       <c r="D22">
-        <v>0.07070982238236923</v>
+        <v>0.03707789652766991</v>
       </c>
       <c r="E22">
-        <v>0.04153418652194141</v>
+        <v>0.08128822106428912</v>
       </c>
       <c r="F22">
-        <v>4.276932380308239</v>
+        <v>1.411067491385879</v>
       </c>
       <c r="G22">
-        <v>0.0007491569510734059</v>
+        <v>1.310907122738627</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.007458545275890349</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7321259248775789</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6158013218462415</v>
       </c>
       <c r="L22">
-        <v>0.2418542599186111</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.12792610510828</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.348894112349342</v>
+        <v>0.3265275834797876</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7453237221106619</v>
+      </c>
+      <c r="P22">
+        <v>0.5843462383034499</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.163625715609442</v>
+        <v>4.20104548603922</v>
       </c>
       <c r="C23">
-        <v>1.385181499437977</v>
+        <v>0.9133642626440235</v>
       </c>
       <c r="D23">
-        <v>0.07044299618408445</v>
+        <v>0.0364772855768507</v>
       </c>
       <c r="E23">
-        <v>0.0406532675819502</v>
+        <v>0.0794276843419226</v>
       </c>
       <c r="F23">
-        <v>4.121200518518634</v>
+        <v>1.366036228300302</v>
       </c>
       <c r="G23">
-        <v>0.0007536561481907148</v>
+        <v>1.26845386203351</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.006276228693964103</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7145212144286006</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6034959918543166</v>
       </c>
       <c r="L23">
-        <v>0.2333845346228145</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.082458681069845</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.351020241459594</v>
+        <v>0.3159005708997142</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7181889491163389</v>
+      </c>
+      <c r="P23">
+        <v>0.5980263020712684</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.039793965546153</v>
+        <v>3.591357187505139</v>
       </c>
       <c r="C24">
-        <v>1.162072889709918</v>
+        <v>0.7877508403057902</v>
       </c>
       <c r="D24">
-        <v>0.06994329814038736</v>
+        <v>0.03417560807211828</v>
       </c>
       <c r="E24">
-        <v>0.03743243561399368</v>
+        <v>0.07251464748298786</v>
       </c>
       <c r="F24">
-        <v>3.55831657150415</v>
+        <v>1.199897036199474</v>
       </c>
       <c r="G24">
-        <v>0.0007707266588067548</v>
+        <v>1.112058802241449</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002679667321520252</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6501574372652783</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5591146514097076</v>
       </c>
       <c r="L24">
-        <v>0.2024498595263537</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.915740407156207</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.366580061538073</v>
+        <v>0.2759192046055574</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6159536583991283</v>
+      </c>
+      <c r="P24">
+        <v>0.6516999554417104</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.887804581544287</v>
+        <v>2.939668953032481</v>
       </c>
       <c r="C25">
-        <v>0.9325047320940314</v>
+        <v>0.653754049694129</v>
       </c>
       <c r="D25">
-        <v>0.07029397898642031</v>
+        <v>0.03163666373795948</v>
       </c>
       <c r="E25">
-        <v>0.03413495551675361</v>
+        <v>0.06525199057865749</v>
       </c>
       <c r="F25">
-        <v>2.996789538937492</v>
+        <v>1.028776410662616</v>
       </c>
       <c r="G25">
-        <v>0.0007893706337893668</v>
+        <v>0.9513858530763599</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.000448058586297817</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5850442495820971</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5154118992593126</v>
       </c>
       <c r="L25">
-        <v>0.171040777606855</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.745069647640598</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.396740402157434</v>
+        <v>0.233208975146745</v>
       </c>
       <c r="O25">
+        <v>0.5065629684289092</v>
+      </c>
+      <c r="P25">
+        <v>0.7132753641405465</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.463327755881949</v>
+        <v>2.330305844834072</v>
       </c>
       <c r="C2">
-        <v>0.5558790353396148</v>
+        <v>0.5936150195279026</v>
       </c>
       <c r="D2">
-        <v>0.0297198900638449</v>
+        <v>0.03296909856176455</v>
       </c>
       <c r="E2">
-        <v>0.05998856437027067</v>
+        <v>0.05789177761659259</v>
       </c>
       <c r="F2">
-        <v>0.9084878580736131</v>
+        <v>0.8258182505189637</v>
       </c>
       <c r="G2">
-        <v>0.8387192295420789</v>
+        <v>0.7240963126113371</v>
       </c>
       <c r="H2">
-        <v>5.281834517978368E-06</v>
+        <v>3.571830919479879E-06</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5402297740481004</v>
+        <v>0.5385307143378952</v>
       </c>
       <c r="K2">
-        <v>0.4862805048676861</v>
+        <v>0.4207433067310689</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2140396613242643</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1137533289989783</v>
       </c>
       <c r="N2">
-        <v>0.2019712202354356</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4265319920206494</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7615130051591095</v>
+        <v>0.2105752082233181</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4124419834838093</v>
+      </c>
+      <c r="R2">
+        <v>0.7597522556415512</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.141954431639306</v>
+        <v>2.033960649600033</v>
       </c>
       <c r="C3">
-        <v>0.4898149414658235</v>
+        <v>0.5186534605013264</v>
       </c>
       <c r="D3">
-        <v>0.02839187486780403</v>
+        <v>0.03068123306737647</v>
       </c>
       <c r="E3">
-        <v>0.0564368203201755</v>
+        <v>0.05481183435233072</v>
       </c>
       <c r="F3">
-        <v>0.8299604851048201</v>
+        <v>0.7593090483995155</v>
       </c>
       <c r="G3">
-        <v>0.7653060310424991</v>
+        <v>0.6646131729493021</v>
       </c>
       <c r="H3">
-        <v>0.0003544840465112831</v>
+        <v>0.0002767489975386006</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5115461152651193</v>
+        <v>0.5126128280579962</v>
       </c>
       <c r="K3">
-        <v>0.4681928769346939</v>
+        <v>0.4097627485868891</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2159198361107357</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1041801461585941</v>
       </c>
       <c r="N3">
-        <v>0.1808643862731856</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3725016450884908</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.795892503167611</v>
+        <v>0.1893325201229459</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3609644974624828</v>
+      </c>
+      <c r="R3">
+        <v>0.7871855403852841</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.945125543492168</v>
+        <v>1.851907574121469</v>
       </c>
       <c r="C4">
-        <v>0.4493160820289575</v>
+        <v>0.4727910088539886</v>
       </c>
       <c r="D4">
-        <v>0.02756236932893685</v>
+        <v>0.02926952612450506</v>
       </c>
       <c r="E4">
-        <v>0.0542524032681817</v>
+        <v>0.05291251577112766</v>
       </c>
       <c r="F4">
-        <v>0.7830484090615215</v>
+        <v>0.7194078453494939</v>
       </c>
       <c r="G4">
-        <v>0.7215065920985779</v>
+        <v>0.6291874595855234</v>
       </c>
       <c r="H4">
-        <v>0.0008584385590957311</v>
+        <v>0.0006753213636596644</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4946863635372978</v>
+        <v>0.4969951390201288</v>
       </c>
       <c r="K4">
-        <v>0.4578282733261929</v>
+        <v>0.4035140864971183</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2171057118258624</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0991715830720743</v>
       </c>
       <c r="N4">
-        <v>0.1679154410428083</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3393954229321565</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8177973706686892</v>
+        <v>0.176300860485739</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3293614217908072</v>
+      </c>
+      <c r="R4">
+        <v>0.8048195649931245</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.865011757579282</v>
+        <v>1.777676139422596</v>
       </c>
       <c r="C5">
-        <v>0.4328197311188546</v>
+        <v>0.4541342639809329</v>
       </c>
       <c r="D5">
-        <v>0.02722083097817318</v>
+        <v>0.02869247634579963</v>
       </c>
       <c r="E5">
-        <v>0.05335976886762284</v>
+        <v>0.05213526768039478</v>
       </c>
       <c r="F5">
-        <v>0.7642353931425276</v>
+        <v>0.7033648270978503</v>
       </c>
       <c r="G5">
-        <v>0.7039547598539428</v>
+        <v>0.6150053107263034</v>
       </c>
       <c r="H5">
-        <v>0.001132263370476561</v>
+        <v>0.0008924424764658045</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4879938742754319</v>
+        <v>0.490699983427703</v>
       </c>
       <c r="K5">
-        <v>0.4537805365068195</v>
+        <v>0.401084555422301</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.217596321736103</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09734367583415349</v>
       </c>
       <c r="N5">
-        <v>0.162638543983519</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3259171559571215</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8269185491001458</v>
+        <v>0.1709911259323889</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3164807422882774</v>
+      </c>
+      <c r="R5">
+        <v>0.8121998151785732</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.851713881611914</v>
+        <v>1.765346909928866</v>
       </c>
       <c r="C6">
-        <v>0.4300807100414943</v>
+        <v>0.4510380480172955</v>
       </c>
       <c r="D6">
-        <v>0.02716390802256541</v>
+        <v>0.0285965503835115</v>
       </c>
       <c r="E6">
-        <v>0.05321135488082096</v>
+        <v>0.05200597565068366</v>
       </c>
       <c r="F6">
-        <v>0.7611291944053562</v>
+        <v>0.700713487986512</v>
       </c>
       <c r="G6">
-        <v>0.7010575331313476</v>
+        <v>0.6126651064449646</v>
       </c>
       <c r="H6">
-        <v>0.001181743041144601</v>
+        <v>0.0009317036424931757</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4868930275528669</v>
+        <v>0.4896587071579148</v>
       </c>
       <c r="K6">
-        <v>0.453118741819722</v>
+        <v>0.4006879857356367</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2176782157854156</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09705287005674279</v>
       </c>
       <c r="N6">
-        <v>0.1617622343377434</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3236797465774046</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8284447271329096</v>
+        <v>0.1701094356698079</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3143416926961038</v>
+      </c>
+      <c r="R6">
+        <v>0.8134369083098143</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.944044751077939</v>
+        <v>1.849091586016982</v>
       </c>
       <c r="C7">
-        <v>0.4490935885893919</v>
+        <v>0.471490618507346</v>
       </c>
       <c r="D7">
-        <v>0.02755777737790766</v>
+        <v>0.02934294529153547</v>
       </c>
       <c r="E7">
-        <v>0.05424037686539873</v>
+        <v>0.05288522648322092</v>
       </c>
       <c r="F7">
-        <v>0.7827934897834581</v>
+        <v>0.7174920351373189</v>
       </c>
       <c r="G7">
-        <v>0.7212687113235461</v>
+        <v>0.6327462741880794</v>
       </c>
       <c r="H7">
-        <v>0.00086185987364229</v>
+        <v>0.0006806366855617307</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4945953998773547</v>
+        <v>0.4900044423797141</v>
       </c>
       <c r="K7">
-        <v>0.4577729852893455</v>
+        <v>0.4027040930823205</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2167583328684337</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09891189965406966</v>
       </c>
       <c r="N7">
-        <v>0.1678442789498504</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3392136042570044</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.817919600284343</v>
+        <v>0.1761726322193624</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3289183081200662</v>
+      </c>
+      <c r="R7">
+        <v>0.8050728110788725</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.352397246730561</v>
+        <v>2.222043924320076</v>
       </c>
       <c r="C8">
-        <v>0.5330810729637392</v>
+        <v>0.564193660766108</v>
       </c>
       <c r="D8">
-        <v>0.02926493832995902</v>
+        <v>0.03246099062150165</v>
       </c>
       <c r="E8">
-        <v>0.05876371312755335</v>
+        <v>0.05677563352305892</v>
       </c>
       <c r="F8">
-        <v>0.8811261849861438</v>
+        <v>0.7970299507918099</v>
       </c>
       <c r="G8">
-        <v>0.8131264250259562</v>
+        <v>0.715902778306841</v>
       </c>
       <c r="H8">
-        <v>6.291429470550725E-05</v>
+        <v>4.99765180892453E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5301766525918197</v>
+        <v>0.5068021388017598</v>
       </c>
       <c r="K8">
-        <v>0.4798835650271371</v>
+        <v>0.4142917480849917</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.213593063244609</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1094182027256245</v>
       </c>
       <c r="N8">
-        <v>0.1946896227977248</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4078852981600676</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7731986189044608</v>
+        <v>0.2030599746459245</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3937852570490108</v>
+      </c>
+      <c r="R8">
+        <v>0.7696800326729552</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.158545260319045</v>
+        <v>2.960178574105669</v>
       </c>
       <c r="C9">
-        <v>0.6987373080967814</v>
+        <v>0.7515097403655489</v>
       </c>
       <c r="D9">
-        <v>0.03249933753819434</v>
+        <v>0.03822573179716571</v>
       </c>
       <c r="E9">
-        <v>0.06768013392623695</v>
+        <v>0.06445621100052801</v>
       </c>
       <c r="F9">
-        <v>1.085452725975117</v>
+        <v>0.9674613999816017</v>
       </c>
       <c r="G9">
-        <v>1.004552792939833</v>
+        <v>0.8750102542268507</v>
       </c>
       <c r="H9">
-        <v>0.0009994418245169445</v>
+        <v>0.0007906666996411182</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.606454813189373</v>
+        <v>0.5670096347883771</v>
       </c>
       <c r="K9">
-        <v>0.5296255794319009</v>
+        <v>0.4440929088832846</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2089543974215857</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.138024415669431</v>
       </c>
       <c r="N9">
-        <v>0.2475539823674637</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5433158999056644</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6920662034133045</v>
+        <v>0.2561831737837963</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5221617024924186</v>
+      </c>
+      <c r="R9">
+        <v>0.7061896138135317</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.739607228160537</v>
+        <v>3.47932714261799</v>
       </c>
       <c r="C10">
-        <v>0.8260694814417207</v>
+        <v>0.8881597006029267</v>
       </c>
       <c r="D10">
-        <v>0.03535846692514255</v>
+        <v>0.04358091192601421</v>
       </c>
       <c r="E10">
-        <v>0.07437792710253355</v>
+        <v>0.07026389727475291</v>
       </c>
       <c r="F10">
-        <v>1.23086504981471</v>
+        <v>1.077794804899014</v>
       </c>
       <c r="G10">
-        <v>1.138721228332798</v>
+        <v>1.009372837543737</v>
       </c>
       <c r="H10">
-        <v>0.003543156529402847</v>
+        <v>0.002803983692588385</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6597444600451468</v>
+        <v>0.5682877470234473</v>
       </c>
       <c r="K10">
-        <v>0.5617944204865566</v>
+        <v>0.4576660485889263</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2016671709318061</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.159209904020063</v>
       </c>
       <c r="N10">
-        <v>0.2745662020572155</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6335071419667528</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6381825723134185</v>
+        <v>0.2826450163656631</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6055780082931221</v>
+      </c>
+      <c r="R10">
+        <v>0.6683417349847289</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.859008587048947</v>
+        <v>3.576588453405293</v>
       </c>
       <c r="C11">
-        <v>0.923958744315172</v>
+        <v>0.9731662927602827</v>
       </c>
       <c r="D11">
-        <v>0.04206056007614478</v>
+        <v>0.05306100837899663</v>
       </c>
       <c r="E11">
-        <v>0.08284302706941205</v>
+        <v>0.07919356184945059</v>
       </c>
       <c r="F11">
-        <v>1.18318497171164</v>
+        <v>1.016403378322792</v>
       </c>
       <c r="G11">
-        <v>1.072306583139436</v>
+        <v>1.001300077599922</v>
       </c>
       <c r="H11">
-        <v>0.02231004387524749</v>
+        <v>0.02141773939752056</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6204945276391243</v>
+        <v>0.4602202269108346</v>
       </c>
       <c r="K11">
-        <v>0.5013494503300251</v>
+        <v>0.3989950163768299</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1757305190301821</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1427739820911569</v>
       </c>
       <c r="N11">
-        <v>0.1932003931887678</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5883252806666377</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6344805906619086</v>
+        <v>0.1977205125171508</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5587802519454286</v>
+      </c>
+      <c r="R11">
+        <v>0.6895952912096703</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.83421431296415</v>
+        <v>3.553671640822245</v>
       </c>
       <c r="C12">
-        <v>0.9817326297317663</v>
+        <v>1.021177042268334</v>
       </c>
       <c r="D12">
-        <v>0.04793397763385343</v>
+        <v>0.06045438716230223</v>
       </c>
       <c r="E12">
-        <v>0.09574336496092251</v>
+        <v>0.09231906431181258</v>
       </c>
       <c r="F12">
-        <v>1.112024847519152</v>
+        <v>0.9479310354014956</v>
       </c>
       <c r="G12">
-        <v>0.9888685463866835</v>
+        <v>0.9510354366369143</v>
       </c>
       <c r="H12">
-        <v>0.06076744204521134</v>
+        <v>0.05987831141179356</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5763437879223119</v>
+        <v>0.3969906697033565</v>
       </c>
       <c r="K12">
-        <v>0.4457136751524473</v>
+        <v>0.3517940110335758</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1577121157259889</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1258675590696825</v>
       </c>
       <c r="N12">
-        <v>0.1348905966204441</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5329043299725669</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6527571910898615</v>
+        <v>0.1370010939805866</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5045590932767539</v>
+      </c>
+      <c r="R12">
+        <v>0.7244153010632743</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.697061420108469</v>
+        <v>3.441753392165253</v>
       </c>
       <c r="C13">
-        <v>1.011230735154641</v>
+        <v>1.046338745453852</v>
       </c>
       <c r="D13">
-        <v>0.0534200495782855</v>
+        <v>0.06602431911481688</v>
       </c>
       <c r="E13">
-        <v>0.1124693635133802</v>
+        <v>0.1095617098874584</v>
       </c>
       <c r="F13">
-        <v>1.018511038148588</v>
+        <v>0.8730742315039635</v>
       </c>
       <c r="G13">
-        <v>0.8874175493096743</v>
+        <v>0.8567673199539456</v>
       </c>
       <c r="H13">
-        <v>0.1159508016984461</v>
+        <v>0.1151936254699137</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5257687643003948</v>
+        <v>0.3701242600822781</v>
       </c>
       <c r="K13">
-        <v>0.3904772583026173</v>
+        <v>0.3112687532567051</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1442521213391714</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1084005149380509</v>
       </c>
       <c r="N13">
-        <v>0.09114750412340911</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4668699690943541</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6875124044109739</v>
+        <v>0.09158269581985934</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.4423323636564547</v>
+      </c>
+      <c r="R13">
+        <v>0.7666455236945708</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.550923155321755</v>
+        <v>3.323190864392927</v>
       </c>
       <c r="C14">
-        <v>1.019057214416165</v>
+        <v>1.053633438077554</v>
       </c>
       <c r="D14">
-        <v>0.05712994353094558</v>
+        <v>0.06904617836992344</v>
       </c>
       <c r="E14">
-        <v>0.126656645959013</v>
+        <v>0.1243771540711123</v>
       </c>
       <c r="F14">
-        <v>0.9436674587420413</v>
+        <v>0.8175716077070661</v>
       </c>
       <c r="G14">
-        <v>0.809187265139613</v>
+        <v>0.7734734291663159</v>
       </c>
       <c r="H14">
-        <v>0.1647916488174559</v>
+        <v>0.1641688902188321</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4878779377698947</v>
+        <v>0.3649650254149179</v>
       </c>
       <c r="K14">
-        <v>0.3526660092711822</v>
+        <v>0.2858221999785293</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.136609703983293</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.09614595460374531</v>
       </c>
       <c r="N14">
-        <v>0.06950547379326188</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4166077528961196</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7199612261334707</v>
+        <v>0.06907160845812399</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3956811969100329</v>
+      </c>
+      <c r="R14">
+        <v>0.7991362085059706</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.491979393257054</v>
+        <v>3.275325627916686</v>
       </c>
       <c r="C15">
-        <v>1.014569920354916</v>
+        <v>1.050108278703391</v>
       </c>
       <c r="D15">
-        <v>0.0578261109181426</v>
+        <v>0.06926400872669802</v>
       </c>
       <c r="E15">
-        <v>0.1299312454692547</v>
+        <v>0.1279594733391498</v>
       </c>
       <c r="F15">
-        <v>0.9208248815319138</v>
+        <v>0.8022061326734189</v>
       </c>
       <c r="G15">
-        <v>0.786307113237811</v>
+        <v>0.7453903294375834</v>
       </c>
       <c r="H15">
-        <v>0.1770804853754129</v>
+        <v>0.1765158922030281</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4773107172442508</v>
+        <v>0.3693816687925846</v>
       </c>
       <c r="K15">
-        <v>0.3433172646411577</v>
+        <v>0.2804706171087759</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1353776546047492</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.09295796552593671</v>
       </c>
       <c r="N15">
-        <v>0.06529950696941</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4020071570811723</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7298385789739967</v>
+        <v>0.06475278399962825</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3823896998483889</v>
+      </c>
+      <c r="R15">
+        <v>0.8069542914873864</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.272266501772037</v>
+        <v>3.093454592162516</v>
       </c>
       <c r="C16">
-        <v>0.9519718397126837</v>
+        <v>0.9957842727368131</v>
       </c>
       <c r="D16">
-        <v>0.05523621624883646</v>
+        <v>0.06417649510853352</v>
       </c>
       <c r="E16">
-        <v>0.1229159834707936</v>
+        <v>0.122182153401571</v>
       </c>
       <c r="F16">
-        <v>0.8777653463066173</v>
+        <v>0.7832493070034587</v>
       </c>
       <c r="G16">
-        <v>0.7499827292503198</v>
+        <v>0.6770367762925105</v>
       </c>
       <c r="H16">
-        <v>0.1633112420958582</v>
+        <v>0.1629869045921026</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4648482204498237</v>
+        <v>0.4188177196338501</v>
       </c>
       <c r="K16">
-        <v>0.3409649521710989</v>
+        <v>0.2872476517928106</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1411632355830221</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.09034498177665284</v>
       </c>
       <c r="N16">
-        <v>0.06405904865763468</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3786541613361578</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7418315544873479</v>
+        <v>0.06434599702801869</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3629064255498236</v>
+      </c>
+      <c r="R16">
+        <v>0.8026396851598534</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.181406619095583</v>
+        <v>3.014137988611992</v>
       </c>
       <c r="C17">
-        <v>0.9000600592730734</v>
+        <v>0.9482657977317501</v>
       </c>
       <c r="D17">
-        <v>0.05126313593630982</v>
+        <v>0.05901505447039312</v>
       </c>
       <c r="E17">
-        <v>0.1095290287491757</v>
+        <v>0.1090776290438527</v>
       </c>
       <c r="F17">
-        <v>0.8845030390145467</v>
+        <v>0.7964220093496692</v>
       </c>
       <c r="G17">
-        <v>0.7635284119121479</v>
+        <v>0.6730117586220956</v>
       </c>
       <c r="H17">
-        <v>0.1250414389803183</v>
+        <v>0.1248150328135722</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4754038019139273</v>
+        <v>0.4545668198769732</v>
       </c>
       <c r="K17">
-        <v>0.3590516900297303</v>
+        <v>0.3055336206533568</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1498915488934927</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.09439189933537051</v>
       </c>
       <c r="N17">
-        <v>0.07291048568325564</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3869149846965243</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7338540469990278</v>
+        <v>0.07429409316569746</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3720448012909188</v>
+      </c>
+      <c r="R17">
+        <v>0.7845862132014574</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.189867896637338</v>
+        <v>3.017480152007181</v>
       </c>
       <c r="C18">
-        <v>0.8520504978810095</v>
+        <v>0.9044063113282732</v>
       </c>
       <c r="D18">
-        <v>0.04600469942443652</v>
+        <v>0.05317912617154263</v>
       </c>
       <c r="E18">
-        <v>0.09246774100374644</v>
+        <v>0.0916288593548753</v>
       </c>
       <c r="F18">
-        <v>0.9349440645555376</v>
+        <v>0.8423876400920136</v>
       </c>
       <c r="G18">
-        <v>0.8222358899200373</v>
+        <v>0.7157656023668011</v>
       </c>
       <c r="H18">
-        <v>0.07212938507033329</v>
+        <v>0.07192280223770098</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5072048298522276</v>
+        <v>0.4932978870489819</v>
       </c>
       <c r="K18">
-        <v>0.3980116808121963</v>
+        <v>0.3381809589243794</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1631575361171826</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1052817851762953</v>
       </c>
       <c r="N18">
-        <v>0.09945314678771666</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4244920852945953</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7122620605825745</v>
+        <v>0.1024573252625558</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4085493913243283</v>
+      </c>
+      <c r="R18">
+        <v>0.7548046273337761</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.277408230817628</v>
+        <v>3.088506292805732</v>
       </c>
       <c r="C19">
-        <v>0.8115758352408591</v>
+        <v>0.8685003316524558</v>
       </c>
       <c r="D19">
-        <v>0.04057827060319852</v>
+        <v>0.04747452058431634</v>
       </c>
       <c r="E19">
-        <v>0.07854315775535881</v>
+        <v>0.0767940278084609</v>
       </c>
       <c r="F19">
-        <v>1.018200640457977</v>
+        <v>0.9137210394295892</v>
       </c>
       <c r="G19">
-        <v>0.915279808724577</v>
+        <v>0.7917118169285828</v>
       </c>
       <c r="H19">
-        <v>0.02721468911973091</v>
+        <v>0.02695927730249537</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5547384967708666</v>
+        <v>0.5369316557388828</v>
       </c>
       <c r="K19">
-        <v>0.4533234124514891</v>
+        <v>0.3823102700643091</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1799146460121932</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1217841694234743</v>
       </c>
       <c r="N19">
-        <v>0.150479705034634</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4851761752812678</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6876378797128986</v>
+        <v>0.155592658988958</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4667412327582596</v>
+      </c>
+      <c r="R19">
+        <v>0.7221038204209975</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.5859294162737</v>
+        <v>3.349090902237492</v>
       </c>
       <c r="C20">
-        <v>0.792688297077234</v>
+        <v>0.8562650875894633</v>
       </c>
       <c r="D20">
-        <v>0.03463262053740834</v>
+        <v>0.0418640585445047</v>
       </c>
       <c r="E20">
-        <v>0.07259300258942103</v>
+        <v>0.06879193663433769</v>
       </c>
       <c r="F20">
-        <v>1.191473782450302</v>
+        <v>1.054018584514978</v>
       </c>
       <c r="G20">
-        <v>1.102219586644409</v>
+        <v>0.9590907624787519</v>
       </c>
       <c r="H20">
-        <v>0.00272243192210686</v>
+        <v>0.002166772402821593</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6450872474543132</v>
+        <v>0.5912870136786381</v>
       </c>
       <c r="K20">
-        <v>0.5526291872337623</v>
+        <v>0.4562776302146929</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2043922117503705</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1543102428568766</v>
       </c>
       <c r="N20">
-        <v>0.2669403443242828</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6093574461939752</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6520202445464438</v>
+        <v>0.2753549046914685</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5842584800165014</v>
+      </c>
+      <c r="R20">
+        <v>0.6769922438050031</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.059909988579534</v>
+        <v>3.733386150334866</v>
       </c>
       <c r="C21">
-        <v>0.8842578679818871</v>
+        <v>0.9350018797337611</v>
       </c>
       <c r="D21">
-        <v>0.03595024666948277</v>
+        <v>0.04682203966712706</v>
       </c>
       <c r="E21">
-        <v>0.0778149218402544</v>
+        <v>0.07276299987462398</v>
       </c>
       <c r="F21">
-        <v>1.327089901473812</v>
+        <v>1.125760009684029</v>
       </c>
       <c r="G21">
-        <v>1.231758426499113</v>
+        <v>1.160801916325255</v>
       </c>
       <c r="H21">
-        <v>0.005321791474186321</v>
+        <v>0.004075607423641214</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6993469392272402</v>
+        <v>0.484399371198549</v>
       </c>
       <c r="K21">
-        <v>0.5929433329170806</v>
+        <v>0.4642593751842696</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1978302388540847</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.170535365616459</v>
       </c>
       <c r="N21">
-        <v>0.306641260372416</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.6945318568096752</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6101409336331454</v>
+        <v>0.3140656623042872</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6579410957114007</v>
+      </c>
+      <c r="R21">
+        <v>0.6506665613807918</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.362969328393888</v>
+        <v>3.974712164564721</v>
       </c>
       <c r="C22">
-        <v>0.9467817658036211</v>
+        <v>0.986965558324215</v>
       </c>
       <c r="D22">
-        <v>0.03707789652766991</v>
+        <v>0.05062371672452315</v>
       </c>
       <c r="E22">
-        <v>0.08128822106428912</v>
+        <v>0.07551886835409727</v>
       </c>
       <c r="F22">
-        <v>1.411067491385879</v>
+        <v>1.165534607297232</v>
       </c>
       <c r="G22">
-        <v>1.310907122738627</v>
+        <v>1.298171844507493</v>
       </c>
       <c r="H22">
-        <v>0.007458545275890349</v>
+        <v>0.00564267538856722</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7321259248775789</v>
+        <v>0.413077384802051</v>
       </c>
       <c r="K22">
-        <v>0.6158013218462415</v>
+        <v>0.4654276244133868</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1921611896466153</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1799361041289558</v>
       </c>
       <c r="N22">
-        <v>0.3265275834797876</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7453237221106619</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5843462383034499</v>
+        <v>0.3330100808632181</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.700793332217323</v>
+      </c>
+      <c r="R22">
+        <v>0.6369999450657104</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.20104548603922</v>
+        <v>3.850968272026705</v>
       </c>
       <c r="C23">
-        <v>0.9133642626440235</v>
+        <v>0.9621167480110842</v>
       </c>
       <c r="D23">
-        <v>0.0364772855768507</v>
+        <v>0.04832307420817017</v>
       </c>
       <c r="E23">
-        <v>0.0794276843419226</v>
+        <v>0.07406838729953247</v>
       </c>
       <c r="F23">
-        <v>1.366036228300302</v>
+        <v>1.148741475928773</v>
       </c>
       <c r="G23">
-        <v>1.26845386203351</v>
+        <v>1.213230597343511</v>
       </c>
       <c r="H23">
-        <v>0.006276228693964103</v>
+        <v>0.004789422069401916</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7145212144286006</v>
+        <v>0.4648545906842401</v>
       </c>
       <c r="K23">
-        <v>0.6034959918543166</v>
+        <v>0.4667416934499613</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1958422046397956</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1756881416880844</v>
       </c>
       <c r="N23">
-        <v>0.3159005708997142</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7181889491163389</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5980263020712684</v>
+        <v>0.3230359606215529</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6786752454995764</v>
+      </c>
+      <c r="R23">
+        <v>0.6432898779669003</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.591357187505139</v>
+        <v>3.35329260053544</v>
       </c>
       <c r="C24">
-        <v>0.7877508403057902</v>
+        <v>0.851785079526536</v>
       </c>
       <c r="D24">
-        <v>0.03417560807211828</v>
+        <v>0.04132284480244408</v>
       </c>
       <c r="E24">
-        <v>0.07251464748298786</v>
+        <v>0.06858639014360079</v>
       </c>
       <c r="F24">
-        <v>1.199897036199474</v>
+        <v>1.061438679908278</v>
       </c>
       <c r="G24">
-        <v>1.112058802241449</v>
+        <v>0.9665531596900649</v>
       </c>
       <c r="H24">
-        <v>0.002679667321520252</v>
+        <v>0.002114477183139285</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6501574372652783</v>
+        <v>0.5968470121673164</v>
       </c>
       <c r="K24">
-        <v>0.5591146514097076</v>
+        <v>0.4615776525799546</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2064775651164545</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1562002316375626</v>
       </c>
       <c r="N24">
-        <v>0.2759192046055574</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6159536583991283</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6516999554417104</v>
+        <v>0.284615910685261</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5906164501100832</v>
+      </c>
+      <c r="R24">
+        <v>0.6752847302894764</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.939668953032481</v>
+        <v>2.762974891799331</v>
       </c>
       <c r="C25">
-        <v>0.653754049694129</v>
+        <v>0.7021305909495368</v>
       </c>
       <c r="D25">
-        <v>0.03163666373795948</v>
+        <v>0.03654722516625597</v>
       </c>
       <c r="E25">
-        <v>0.06525199057865749</v>
+        <v>0.0623942483824369</v>
       </c>
       <c r="F25">
-        <v>1.028776410662616</v>
+        <v>0.922771567602652</v>
       </c>
       <c r="G25">
-        <v>0.9513858530763599</v>
+        <v>0.8253313773166155</v>
       </c>
       <c r="H25">
-        <v>0.000448058586297817</v>
+        <v>0.0003570970276653984</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5850442495820971</v>
+        <v>0.5600896256278673</v>
       </c>
       <c r="K25">
-        <v>0.5154118992593126</v>
+        <v>0.4366145176214715</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.210602174629102</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.129880105484748</v>
       </c>
       <c r="N25">
-        <v>0.233208975146745</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5065629684289092</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7132753641405465</v>
+        <v>0.2418562850534798</v>
       </c>
       <c r="Q25">
+        <v>0.4877804200521254</v>
+      </c>
+      <c r="R25">
+        <v>0.7223120498163844</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
